--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt7a-Fzd10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt7a-Fzd10.xlsx
@@ -555,10 +555,10 @@
         <v>0.119697</v>
       </c>
       <c r="O2">
-        <v>0.4436993666839036</v>
+        <v>0.4086672402490986</v>
       </c>
       <c r="P2">
-        <v>0.5447061607492286</v>
+        <v>0.5089958879585649</v>
       </c>
       <c r="Q2">
         <v>0.02567801222466666</v>
@@ -567,10 +567,10 @@
         <v>0.231102110022</v>
       </c>
       <c r="S2">
-        <v>0.4436993666839036</v>
+        <v>0.4086672402490986</v>
       </c>
       <c r="T2">
-        <v>0.5447061607492286</v>
+        <v>0.5089958879585649</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,28 +611,28 @@
         <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.0500245</v>
+        <v>0.057733</v>
       </c>
       <c r="N3">
-        <v>0.100049</v>
+        <v>0.115466</v>
       </c>
       <c r="O3">
-        <v>0.5563006333160965</v>
+        <v>0.5913327597509014</v>
       </c>
       <c r="P3">
-        <v>0.4552938392507713</v>
+        <v>0.4910041120414351</v>
       </c>
       <c r="Q3">
-        <v>0.03219453426233333</v>
+        <v>0.03715553471933333</v>
       </c>
       <c r="R3">
-        <v>0.193167205574</v>
+        <v>0.222933208316</v>
       </c>
       <c r="S3">
-        <v>0.5563006333160965</v>
+        <v>0.5913327597509014</v>
       </c>
       <c r="T3">
-        <v>0.4552938392507713</v>
+        <v>0.4910041120414351</v>
       </c>
     </row>
   </sheetData>
